--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_10_38.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_10_38.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3703005.00141018</v>
+        <v>3704765.531712964</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>10956994.25395846</v>
+        <v>10956994.25395845</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283187</v>
+        <v>416855.1052283181</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7723537.311219601</v>
+        <v>7723537.311219602</v>
       </c>
     </row>
     <row r="11">
@@ -673,13 +673,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>12.93856390941625</v>
+        <v>12.93856390941627</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>119.3310866359317</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,13 +706,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>1.360597680915902</v>
+        <v>1.360597680917124</v>
       </c>
       <c r="S2" t="n">
-        <v>145.1572291151577</v>
+        <v>155.1464635459286</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>109.3418522051597</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -743,7 +743,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>145.9402613129508</v>
       </c>
       <c r="E3" t="n">
         <v>157.6450804554009</v>
@@ -755,10 +755,10 @@
         <v>136.0785727665282</v>
       </c>
       <c r="H3" t="n">
-        <v>100.0187444053789</v>
+        <v>100.018744405379</v>
       </c>
       <c r="I3" t="n">
-        <v>45.8448191937072</v>
+        <v>45.84481919370755</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,13 +785,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>21.62032152353321</v>
+        <v>21.62032152353385</v>
       </c>
       <c r="S3" t="n">
-        <v>148.1873837356349</v>
+        <v>148.1873837356351</v>
       </c>
       <c r="T3" t="n">
-        <v>193.5613108442268</v>
+        <v>195.0661150959129</v>
       </c>
       <c r="U3" t="n">
         <v>225.8581620548773</v>
@@ -816,10 +816,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>103.9169835207405</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -879,7 +879,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>43.36118057677457</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -895,10 +895,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>278.8733143804962</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -910,10 +910,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>412.9169039459368</v>
+        <v>12.9169039459368</v>
       </c>
       <c r="H5" t="n">
-        <v>51.47710011512173</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -952,10 +952,10 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.1547862223006</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -964,7 +964,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1053,13 +1053,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1110,13 +1110,13 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>242.128994168389</v>
+        <v>245.2978420174269</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1147,13 +1147,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>12.9169039459368</v>
+        <v>342.7152304306099</v>
       </c>
       <c r="H8" t="n">
-        <v>315.0408840752156</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>14.75744240945757</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1369,25 +1369,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634823</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710077</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206831</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722619</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417116</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187867</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444127</v>
+        <v>283.1540821444138</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1423,16 +1423,16 @@
         <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
-        <v>199.022230457616</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881275</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>327.752258470135</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174131</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -1466,7 +1466,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1530,7 +1530,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>28.75188085812011</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -1548,7 +1548,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856555</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.3752467101217</v>
+        <v>9.146142788180381</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1618,10 +1618,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417115</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187857</v>
+        <v>409.8033385187867</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444138</v>
@@ -1657,22 +1657,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695439</v>
+        <v>83.70251495695626</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U14" t="n">
         <v>250.9057009881293</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>327.752258470135</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174131</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784691</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1703,7 +1703,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1736,7 +1736,7 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>117.0286782364135</v>
+        <v>117.0286782364134</v>
       </c>
       <c r="T15" t="n">
         <v>188.3046392154443</v>
@@ -1770,7 +1770,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>27.02919805176013</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1779,13 +1779,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856556</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012171</v>
+        <v>66.37524671012163</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1821,7 +1821,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673032</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1858,10 +1858,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187867</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444123</v>
+        <v>283.1540821444141</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1900,16 +1900,16 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881287</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>327.752258470135</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784691</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -1940,7 +1940,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H18" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -2007,7 +2007,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>9.146142788180326</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2016,7 +2016,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>108.2950343703266</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.3752467101217</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2095,10 +2095,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187867</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444138</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2131,19 +2131,19 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695439</v>
+        <v>83.70251495695534</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881287</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>327.752258470135</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174132</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
@@ -2177,7 +2177,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H21" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2250,13 +2250,13 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>9.146142788179874</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>83.06560892428169</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.3752467101217</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2332,10 +2332,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>409.8033385187849</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H23" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444138</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2368,10 +2368,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695531</v>
+        <v>83.70251495695534</v>
       </c>
       <c r="T23" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U23" t="n">
         <v>250.9057009881286</v>
@@ -2414,7 +2414,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H24" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2478,7 +2478,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>28.75188085812055</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2496,7 +2496,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
-        <v>123.7971820797026</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2569,7 +2569,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187857</v>
       </c>
       <c r="H26" t="n">
         <v>283.1540821444137</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695439</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2651,7 +2651,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H27" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2727,13 +2727,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>55.52079624060384</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,16 +2760,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>105.6507867899574</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695379</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2888,7 +2888,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H30" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2952,25 +2952,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>28.75188085812011</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>104.8913819999787</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856555</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3079,10 +3079,10 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695524</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
-        <v>199.0222304576146</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
         <v>250.9057009881286</v>
@@ -3125,7 +3125,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H33" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -3204,7 +3204,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3243,7 +3243,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>228.9553704673018</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3277,7 +3277,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417123</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
         <v>409.8033385187866</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695531</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3362,7 +3362,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H36" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3444,7 +3444,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,13 +3471,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>160.1763464053459</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -3492,7 +3492,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>80.08971311158751</v>
       </c>
     </row>
     <row r="38">
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695531</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3599,7 +3599,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H39" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3666,13 +3666,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
@@ -3681,7 +3681,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,16 +3708,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>172.0260335000785</v>
+        <v>147.6895341487369</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3754,10 +3754,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>409.8033385187867</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
-        <v>283.1540821444123</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695531</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3836,7 +3836,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H42" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3897,10 +3897,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>141.2342243404106</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -3918,7 +3918,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>41.55695577161244</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.3752467101217</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695531</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4073,7 +4073,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H45" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4137,25 +4137,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>28.75188085811999</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>99.97427419833861</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856555</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1710.30900009619</v>
+        <v>1589.772548948785</v>
       </c>
       <c r="C2" t="n">
-        <v>1341.346483155779</v>
+        <v>1220.810032008373</v>
       </c>
       <c r="D2" t="n">
-        <v>983.0807845490283</v>
+        <v>862.5443334016225</v>
       </c>
       <c r="E2" t="n">
-        <v>597.292531950784</v>
+        <v>476.7560808033783</v>
       </c>
       <c r="F2" t="n">
-        <v>186.3066271611765</v>
+        <v>65.77017601377071</v>
       </c>
       <c r="G2" t="n">
-        <v>173.2373706870187</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="H2" t="n">
-        <v>173.2373706870187</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="I2" t="n">
         <v>52.70091953961285</v>
       </c>
       <c r="J2" t="n">
-        <v>72.11519083088595</v>
+        <v>72.11519083088434</v>
       </c>
       <c r="K2" t="n">
-        <v>151.9506691118239</v>
+        <v>472.8546275572729</v>
       </c>
       <c r="L2" t="n">
-        <v>701.3800037181077</v>
+        <v>1022.283962163554</v>
       </c>
       <c r="M2" t="n">
-        <v>1329.332547639732</v>
+        <v>1650.236506085175</v>
       </c>
       <c r="N2" t="n">
-        <v>1952.814022680367</v>
+        <v>2273.717981125807</v>
       </c>
       <c r="O2" t="n">
-        <v>2494.726756291966</v>
+        <v>2494.726756291971</v>
       </c>
       <c r="P2" t="n">
-        <v>2602.377499016427</v>
+        <v>2602.377499016429</v>
       </c>
       <c r="Q2" t="n">
         <v>2635.045976980643</v>
       </c>
       <c r="R2" t="n">
-        <v>2633.671635888808</v>
+        <v>2633.671635888807</v>
       </c>
       <c r="S2" t="n">
-        <v>2487.048172136124</v>
+        <v>2476.958036347465</v>
       </c>
       <c r="T2" t="n">
-        <v>2487.048172136124</v>
+        <v>2366.511720988718</v>
       </c>
       <c r="U2" t="n">
-        <v>2487.048172136124</v>
+        <v>2366.511720988718</v>
       </c>
       <c r="V2" t="n">
-        <v>2487.048172136124</v>
+        <v>2366.511720988718</v>
       </c>
       <c r="W2" t="n">
-        <v>2487.048172136124</v>
+        <v>2366.511720988718</v>
       </c>
       <c r="X2" t="n">
-        <v>2487.048172136124</v>
+        <v>2366.511720988718</v>
       </c>
       <c r="Y2" t="n">
-        <v>2096.908840160312</v>
+        <v>1976.372389012906</v>
       </c>
     </row>
     <row r="3">
@@ -4385,49 +4385,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>966.6504081935053</v>
+        <v>965.1304038988715</v>
       </c>
       <c r="C3" t="n">
-        <v>792.1973789123783</v>
+        <v>790.6773746177445</v>
       </c>
       <c r="D3" t="n">
-        <v>643.2629692511271</v>
+        <v>643.2629692511275</v>
       </c>
       <c r="E3" t="n">
-        <v>484.0255142456716</v>
+        <v>484.0255142456721</v>
       </c>
       <c r="F3" t="n">
-        <v>337.4909562725566</v>
+        <v>337.490956272557</v>
       </c>
       <c r="G3" t="n">
-        <v>200.0378524679827</v>
+        <v>200.0378524679831</v>
       </c>
       <c r="H3" t="n">
-        <v>99.00881771507467</v>
+        <v>99.00881771507503</v>
       </c>
       <c r="I3" t="n">
         <v>52.70091953961285</v>
       </c>
       <c r="J3" t="n">
-        <v>52.70091953961285</v>
+        <v>170.276204549633</v>
       </c>
       <c r="K3" t="n">
-        <v>380.2766518524149</v>
+        <v>236.0313522199806</v>
       </c>
       <c r="L3" t="n">
-        <v>882.14704559001</v>
+        <v>737.9017459575734</v>
       </c>
       <c r="M3" t="n">
-        <v>1519.7853450249</v>
+        <v>1308.394714441011</v>
       </c>
       <c r="N3" t="n">
-        <v>1827.237634015648</v>
+        <v>1960.56859374372</v>
       </c>
       <c r="O3" t="n">
-        <v>1984.02017789269</v>
+        <v>2507.274833704722</v>
       </c>
       <c r="P3" t="n">
-        <v>2405.797066257505</v>
+        <v>2613.773581115997</v>
       </c>
       <c r="Q3" t="n">
         <v>2635.045976980643</v>
@@ -4436,25 +4436,25 @@
         <v>2613.207268371013</v>
       </c>
       <c r="S3" t="n">
-        <v>2463.523042375422</v>
+        <v>2463.523042375421</v>
       </c>
       <c r="T3" t="n">
-        <v>2268.006566775193</v>
+        <v>2266.48656248056</v>
       </c>
       <c r="U3" t="n">
-        <v>2039.867009144004</v>
+        <v>2038.34700484937</v>
       </c>
       <c r="V3" t="n">
-        <v>1804.714900912262</v>
+        <v>1803.194896617628</v>
       </c>
       <c r="W3" t="n">
-        <v>1550.47754418406</v>
+        <v>1548.957539889426</v>
       </c>
       <c r="X3" t="n">
-        <v>1342.626043978527</v>
+        <v>1341.106039683893</v>
       </c>
       <c r="Y3" t="n">
-        <v>1134.865745213573</v>
+        <v>1133.34574091894</v>
       </c>
     </row>
     <row r="4">
@@ -4464,7 +4464,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>369.5501960499129</v>
+        <v>305.580663142956</v>
       </c>
       <c r="C4" t="n">
         <v>200.614013122006</v>
@@ -4491,49 +4491,49 @@
         <v>52.70091953961285</v>
       </c>
       <c r="K4" t="n">
-        <v>152.631324713153</v>
+        <v>152.631324713152</v>
       </c>
       <c r="L4" t="n">
-        <v>336.0342731039144</v>
+        <v>336.0342731039121</v>
       </c>
       <c r="M4" t="n">
-        <v>539.7960902856134</v>
+        <v>539.7960902856098</v>
       </c>
       <c r="N4" t="n">
-        <v>744.1475233066396</v>
+        <v>744.1475233066346</v>
       </c>
       <c r="O4" t="n">
-        <v>916.8828514249459</v>
+        <v>916.8828514249396</v>
       </c>
       <c r="P4" t="n">
-        <v>1041.167083351322</v>
+        <v>1041.167083351315</v>
       </c>
       <c r="Q4" t="n">
-        <v>1043.779963221472</v>
+        <v>1043.779963221464</v>
       </c>
       <c r="R4" t="n">
-        <v>1043.779963221472</v>
+        <v>1043.779963221464</v>
       </c>
       <c r="S4" t="n">
-        <v>1043.779963221472</v>
+        <v>1043.779963221464</v>
       </c>
       <c r="T4" t="n">
-        <v>1043.779963221472</v>
+        <v>1043.779963221464</v>
       </c>
       <c r="U4" t="n">
-        <v>1043.779963221472</v>
+        <v>1043.779963221464</v>
       </c>
       <c r="V4" t="n">
-        <v>1043.779963221472</v>
+        <v>1043.779963221464</v>
       </c>
       <c r="W4" t="n">
-        <v>999.9807909217001</v>
+        <v>754.3627931845035</v>
       </c>
       <c r="X4" t="n">
-        <v>771.9912400236827</v>
+        <v>526.3732422864862</v>
       </c>
       <c r="Y4" t="n">
-        <v>551.1986608801526</v>
+        <v>305.580663142956</v>
       </c>
     </row>
     <row r="5">
@@ -4543,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1676.825628121143</v>
+        <v>1589.750670197795</v>
       </c>
       <c r="C5" t="n">
-        <v>1676.825628121143</v>
+        <v>1220.788153257384</v>
       </c>
       <c r="D5" t="n">
-        <v>1318.559929514392</v>
+        <v>862.5224546506331</v>
       </c>
       <c r="E5" t="n">
-        <v>932.7716769161482</v>
+        <v>476.7342020523889</v>
       </c>
       <c r="F5" t="n">
-        <v>521.7857721265407</v>
+        <v>65.74829726278134</v>
       </c>
       <c r="G5" t="n">
-        <v>104.6979903629681</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="H5" t="n">
         <v>52.70091953961285</v>
@@ -4600,19 +4600,19 @@
         <v>2635.045976980643</v>
       </c>
       <c r="U5" t="n">
-        <v>2381.354273725794</v>
+        <v>2635.045976980643</v>
       </c>
       <c r="V5" t="n">
-        <v>2050.291386382223</v>
+        <v>2635.045976980643</v>
       </c>
       <c r="W5" t="n">
-        <v>2050.291386382223</v>
+        <v>2635.045976980643</v>
       </c>
       <c r="X5" t="n">
-        <v>1676.825628121143</v>
+        <v>2261.580218719563</v>
       </c>
       <c r="Y5" t="n">
-        <v>1676.825628121143</v>
+        <v>1871.440886743751</v>
       </c>
     </row>
     <row r="6">
@@ -4649,19 +4649,19 @@
         <v>52.70091953961285</v>
       </c>
       <c r="K6" t="n">
-        <v>120.3087392029699</v>
+        <v>382.1293238454227</v>
       </c>
       <c r="L6" t="n">
-        <v>624.6702790690885</v>
+        <v>886.4908637115414</v>
       </c>
       <c r="M6" t="n">
-        <v>1265.215628536193</v>
+        <v>1527.036213178646</v>
       </c>
       <c r="N6" t="n">
-        <v>1917.389507838902</v>
+        <v>1725.692954831311</v>
       </c>
       <c r="O6" t="n">
-        <v>2466.825516591625</v>
+        <v>2275.128963584034</v>
       </c>
       <c r="P6" t="n">
         <v>2612.309035778665</v>
@@ -4701,10 +4701,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>518.6436893777658</v>
+        <v>368.5270499654301</v>
       </c>
       <c r="C7" t="n">
-        <v>349.7075064498589</v>
+        <v>199.5908670375232</v>
       </c>
       <c r="D7" t="n">
         <v>199.5908670375232</v>
@@ -4758,19 +4758,19 @@
         <v>1052.635600998958</v>
       </c>
       <c r="U7" t="n">
-        <v>808.0608594147263</v>
+        <v>804.8600030015567</v>
       </c>
       <c r="V7" t="n">
-        <v>808.0608594147263</v>
+        <v>550.1755147956699</v>
       </c>
       <c r="W7" t="n">
-        <v>518.6436893777658</v>
+        <v>550.1755147956699</v>
       </c>
       <c r="X7" t="n">
-        <v>518.6436893777658</v>
+        <v>550.1755147956699</v>
       </c>
       <c r="Y7" t="n">
-        <v>518.6436893777658</v>
+        <v>550.1755147956699</v>
       </c>
     </row>
     <row r="8">
@@ -4795,34 +4795,34 @@
         <v>398.8779199745724</v>
       </c>
       <c r="G8" t="n">
-        <v>385.8305422514039</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="H8" t="n">
-        <v>67.60742702391343</v>
+        <v>52.70091953961285</v>
       </c>
       <c r="I8" t="n">
         <v>52.70091953961285</v>
       </c>
       <c r="J8" t="n">
-        <v>241.3408185533492</v>
+        <v>73.93516953299616</v>
       </c>
       <c r="K8" t="n">
-        <v>644.8079315733946</v>
+        <v>156.4983241075885</v>
       </c>
       <c r="L8" t="n">
-        <v>1032.36013938198</v>
+        <v>709.3115823537878</v>
       </c>
       <c r="M8" t="n">
-        <v>1219.059552207387</v>
+        <v>1341.029393337099</v>
       </c>
       <c r="N8" t="n">
-        <v>1413.39376509937</v>
+        <v>1968.337061396946</v>
       </c>
       <c r="O8" t="n">
-        <v>1960.554969866447</v>
+        <v>2489.327531709521</v>
       </c>
       <c r="P8" t="n">
-        <v>2389.870016205742</v>
+        <v>2600.061856959047</v>
       </c>
       <c r="Q8" t="n">
         <v>2635.045976980643</v>
@@ -4892,7 +4892,7 @@
         <v>1005.150115568437</v>
       </c>
       <c r="M9" t="n">
-        <v>1232.27200203395</v>
+        <v>1184.647451923042</v>
       </c>
       <c r="N9" t="n">
         <v>1430.928743686615</v>
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.77365361686</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362675</v>
+        <v>379.8308874362688</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014777</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355935</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068008</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694705</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852253</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398592</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492576</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474782</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123005</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852891</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591811</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866616</v>
       </c>
     </row>
     <row r="12">
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,28 +5114,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273898</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J12" t="n">
-        <v>245.2306927803936</v>
+        <v>243.4633055756267</v>
       </c>
       <c r="K12" t="n">
-        <v>579.1554649516141</v>
+        <v>577.3880777468473</v>
       </c>
       <c r="L12" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1671.859558793924</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N12" t="n">
-        <v>1671.859558793924</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190825</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P12" t="n">
         <v>2319.799627685893</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C13" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D13" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E13" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782956</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.77365361686</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362687</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192588</v>
+        <v>95.34095638192611</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111703</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075824</v>
+        <v>852.8523611075799</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="15">
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,31 +5351,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273898</v>
+        <v>95.58405025273912</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803936</v>
+        <v>245.230692780394</v>
       </c>
       <c r="K15" t="n">
-        <v>579.155464951614</v>
+        <v>245.230692780394</v>
       </c>
       <c r="L15" t="n">
-        <v>1074.481071167372</v>
+        <v>740.5562989961529</v>
       </c>
       <c r="M15" t="n">
-        <v>1307.627092998425</v>
+        <v>1337.934786622705</v>
       </c>
       <c r="N15" t="n">
-        <v>1307.627092998425</v>
+        <v>1965.532750177312</v>
       </c>
       <c r="O15" t="n">
-        <v>1859.536823237711</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P15" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q15" t="n">
         <v>2516.421633107662</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400703</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C16" t="n">
-        <v>344.9174178121634</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D16" t="n">
-        <v>317.6151975578603</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E16" t="n">
-        <v>317.6151975578603</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F16" t="n">
-        <v>317.6151975578603</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578603</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782956</v>
+        <v>174.0526814782959</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.140538179774</v>
+        <v>826.1405381797749</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.150240910808</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279801</v>
+        <v>2035.089393279804</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580262</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832662</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487566</v>
+        <v>2197.062545487569</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510507</v>
+        <v>1977.46108051051</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854705</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648818</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138402</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.50206557031</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="17">
@@ -5491,34 +5491,34 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362672</v>
+        <v>379.8308874362689</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192611</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111722</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5527,40 +5527,40 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="18">
@@ -5579,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5588,25 +5588,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I18" t="n">
-        <v>95.584050252739</v>
+        <v>95.58405025273908</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K18" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516145</v>
       </c>
       <c r="L18" t="n">
         <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1671.859558793924</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
         <v>2553.061288060775</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400712</v>
+        <v>580.8993044876697</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121643</v>
+        <v>411.9631215597628</v>
       </c>
       <c r="D19" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E19" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F19" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G19" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235166</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258107</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602305</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396418</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359457</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138411</v>
+        <v>983.3403484614396</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703109</v>
+        <v>762.5477693179095</v>
       </c>
     </row>
     <row r="20">
@@ -5731,7 +5731,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D20" t="n">
         <v>1590.547811004713</v>
@@ -5740,52 +5740,52 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192591</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V20" t="n">
         <v>3820.749612123003</v>
@@ -5816,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5825,28 +5825,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I21" t="n">
-        <v>95.584050252739</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L21" t="n">
         <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1671.859558793924</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>2299.457522348531</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
-        <v>2553.061288060775</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="P21" t="n">
         <v>2553.061288060775</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400712</v>
+        <v>580.8993044876693</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121643</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="D22" t="n">
-        <v>344.9174178121643</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="E22" t="n">
-        <v>344.9174178121643</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="F22" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G22" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138411</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703109</v>
+        <v>762.547769317909</v>
       </c>
     </row>
     <row r="23">
@@ -5965,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004711</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168594</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466571</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852886</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="24">
@@ -6053,7 +6053,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6062,25 +6062,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I24" t="n">
-        <v>95.584050252739</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L24" t="n">
         <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1671.859558793924</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>2299.457522348531</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O24" t="n">
         <v>2553.061288060775</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C25" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D25" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T25" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U25" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V25" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W25" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X25" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y25" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="26">
@@ -6208,67 +6208,67 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168603</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797186</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6302,7 +6302,7 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I27" t="n">
-        <v>95.584050252739</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
         <v>245.2306927803937</v>
@@ -6314,7 +6314,7 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1671.859558793924</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
         <v>2001.151557821488</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>763.7541388327643</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C28" t="n">
-        <v>594.8179559048574</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D28" t="n">
-        <v>444.7013164925216</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E28" t="n">
-        <v>296.7882229101285</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F28" t="n">
-        <v>149.8982754122182</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G28" t="n">
-        <v>149.8982754122182</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797186</v>
@@ -6387,49 +6387,49 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038344</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T28" t="n">
-        <v>2227.361618603201</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="U28" t="n">
-        <v>1938.286391947399</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="V28" t="n">
-        <v>1683.601903741512</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W28" t="n">
-        <v>1394.184733704551</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X28" t="n">
-        <v>1166.195182806534</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y28" t="n">
-        <v>945.402603663004</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="29">
@@ -6439,55 +6439,55 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111707</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332386</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014777</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355935</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068008</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694705</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852253</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398592</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
         <v>4606.285157492578</v>
@@ -6496,19 +6496,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="30">
@@ -6536,34 +6536,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273898</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803936</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516141</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L30" t="n">
         <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1671.859558793924</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N30" t="n">
-        <v>2299.457522348531</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O30" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C31" t="n">
-        <v>484.8112968429802</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="D31" t="n">
-        <v>484.8112968429802</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="E31" t="n">
-        <v>484.8112968429802</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429802</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782956</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="32">
@@ -6688,46 +6688,46 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192588</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111713</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398592</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492576</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
         <v>4405.252601474784</v>
@@ -6773,25 +6773,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273898</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803936</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516141</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L33" t="n">
         <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1671.859558793924</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>2299.457522348531</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
         <v>2553.061288060775</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C34" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D34" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E34" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782956</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U34" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V34" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W34" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X34" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y34" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="35">
@@ -6913,16 +6913,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
         <v>793.7736536168611</v>
@@ -6931,46 +6931,46 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192855</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J35" t="n">
-        <v>378.192580311174</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075831</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332389</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014781</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355939</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
         <v>3820.749612123003</v>
@@ -7001,7 +7001,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7010,25 +7010,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L36" t="n">
         <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1671.859558793924</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>2299.457522348531</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
         <v>2553.061288060775</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>571.6607764188008</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C37" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D37" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E37" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T37" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U37" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V37" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W37" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X37" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y37" t="n">
-        <v>753.3092412490405</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="38">
@@ -7171,31 +7171,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
@@ -7238,7 +7238,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7250,22 +7250,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L39" t="n">
         <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1671.859558793924</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>2299.457522348531</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O39" t="n">
         <v>2553.061288060775</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1098.667160263527</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C40" t="n">
-        <v>929.7309773356195</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D40" t="n">
-        <v>779.6143379232838</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E40" t="n">
-        <v>631.7012443408906</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578603</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T40" t="n">
-        <v>2446.96308358026</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U40" t="n">
-        <v>2273.199413378161</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V40" t="n">
-        <v>2018.514925172274</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W40" t="n">
-        <v>1729.097755135313</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X40" t="n">
-        <v>1501.108204237296</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y40" t="n">
-        <v>1280.315625093766</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
         <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362671</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="42">
@@ -7484,25 +7484,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756265</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K42" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L42" t="n">
-        <v>1072.713683962606</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M42" t="n">
-        <v>1670.092171589157</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N42" t="n">
-        <v>2297.690135143764</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O42" t="n">
         <v>2553.061288060775</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>552.8412329032295</v>
+        <v>763.7541388327652</v>
       </c>
       <c r="C43" t="n">
-        <v>552.8412329032295</v>
+        <v>594.8179559048583</v>
       </c>
       <c r="D43" t="n">
-        <v>402.7245934908938</v>
+        <v>444.7013164925226</v>
       </c>
       <c r="E43" t="n">
-        <v>402.7245934908938</v>
+        <v>444.7013164925226</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908938</v>
+        <v>444.7013164925226</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>277.5052172074025</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797186</v>
+        <v>135.7933860496006</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>2227.361618603202</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854706</v>
+        <v>1938.2863919474</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.701365648819</v>
+        <v>1683.601903741513</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611858</v>
+        <v>1394.184733704552</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138411</v>
+        <v>1166.195182806535</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703109</v>
+        <v>945.4026036630049</v>
       </c>
     </row>
     <row r="44">
@@ -7636,40 +7636,40 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
         <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R44" t="n">
         <v>4690.833152398593</v>
@@ -7712,7 +7712,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E45" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F45" t="n">
         <v>314.2396613568978</v>
@@ -7724,22 +7724,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516142</v>
+        <v>280.8495004245705</v>
       </c>
       <c r="L45" t="n">
-        <v>1074.481071167373</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M45" t="n">
-        <v>1671.859558793924</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N45" t="n">
-        <v>2299.457522348531</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O45" t="n">
         <v>2553.061288060775</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C46" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D46" t="n">
-        <v>484.8112968429803</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="E46" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F46" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578603</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
   </sheetData>
@@ -7981,7 +7981,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L2" t="n">
         <v>417.6612145504504</v>
@@ -7993,7 +7993,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O2" t="n">
-        <v>379.1481554188089</v>
+        <v>55.0027428476653</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -8057,28 +8057,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>7.328121188872359</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>465.7050637499999</v>
+        <v>397.8814971323743</v>
       </c>
       <c r="N3" t="n">
-        <v>112.9086245802564</v>
+        <v>461.1122511579973</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8297,7 +8297,7 @@
         <v>6.233205181928369</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8306,13 +8306,13 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>458.0981188384286</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
-        <v>37.16554713105234</v>
+        <v>230.7984289569017</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -8452,28 +8452,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>250.7308605730627</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O8" t="n">
-        <v>380.8001812627454</v>
+        <v>354.365095955167</v>
       </c>
       <c r="P8" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>65.71641987298243</v>
@@ -8540,10 +8540,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>48.10560617263505</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>48.10560617263525</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8926,10 +8926,10 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>-1.534772309241816e-12</v>
       </c>
       <c r="K14" t="n">
-        <v>2.160049916710705e-12</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
@@ -9898,7 +9898,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>-1.316305826846356e-13</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10111,7 +10111,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>-2.230370853753821e-13</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -10846,7 +10846,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>1.392663762089796e-12</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -23418,7 +23418,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>138.4949402405077</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -23436,7 +23436,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>57.22910392194126</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23658,7 +23658,7 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>121.5862749664522</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -23667,13 +23667,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23709,7 +23709,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>57.22910392194098</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23895,7 +23895,7 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>139.469330230032</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -23904,13 +23904,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856555</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -24138,16 +24138,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>136.2749052347514</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24366,7 +24366,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>138.4949402405073</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -24384,7 +24384,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856555</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24414,7 +24414,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>57.229103921942</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24615,13 +24615,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>84.77391660562004</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856555</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,16 +24648,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.3752467101217</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>180.5336875992868</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24840,25 +24840,25 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>138.4949402405077</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>41.54258064659051</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -25092,10 +25092,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25131,7 +25131,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25332,7 +25332,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856555</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25365,7 +25365,7 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>57.22910392194237</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25380,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>138.4949402405073</v>
       </c>
     </row>
     <row r="38">
@@ -25554,13 +25554,13 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -25596,16 +25596,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.3752467101217</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>114.1584408891656</v>
+        <v>138.4949402405073</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25785,10 +25785,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>38.59775584152669</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -25806,7 +25806,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856555</v>
+        <v>39.70888054695308</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,10 +25833,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -26025,25 +26025,25 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>46.45968844823057</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>716883.2514425276</v>
+        <v>716883.2514425282</v>
       </c>
     </row>
     <row r="3">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>651816.7194021281</v>
+        <v>651816.7194021282</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>651816.7194021281</v>
+        <v>651816.7194021282</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>651816.7194021281</v>
+        <v>651816.7194021282</v>
       </c>
     </row>
     <row r="10">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>651816.7194021282</v>
+        <v>651816.7194021281</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>651816.7194021281</v>
+        <v>651816.7194021282</v>
       </c>
     </row>
     <row r="14">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>651816.7194021282</v>
+        <v>651816.7194021281</v>
       </c>
     </row>
   </sheetData>
@@ -26313,40 +26313,40 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>779989.6813710695</v>
+        <v>779989.6813710696</v>
       </c>
       <c r="C2" t="n">
-        <v>779989.6813710687</v>
+        <v>779989.6813710688</v>
       </c>
       <c r="D2" t="n">
-        <v>779989.6813710689</v>
+        <v>779989.6813710688</v>
       </c>
       <c r="E2" t="n">
-        <v>766789.2697055057</v>
+        <v>766789.269705506</v>
       </c>
       <c r="F2" t="n">
-        <v>766789.2697055056</v>
+        <v>766789.2697055058</v>
       </c>
       <c r="G2" t="n">
-        <v>766789.269705506</v>
+        <v>766789.2697055059</v>
       </c>
       <c r="H2" t="n">
+        <v>766789.2697055059</v>
+      </c>
+      <c r="I2" t="n">
         <v>766789.2697055058</v>
       </c>
-      <c r="I2" t="n">
-        <v>766789.2697055059</v>
-      </c>
       <c r="J2" t="n">
-        <v>766789.2697055059</v>
+        <v>766789.2697055058</v>
       </c>
       <c r="K2" t="n">
-        <v>766789.2697055059</v>
+        <v>766789.2697055055</v>
       </c>
       <c r="L2" t="n">
         <v>766789.2697055058</v>
       </c>
       <c r="M2" t="n">
-        <v>766789.2697055062</v>
+        <v>766789.2697055059</v>
       </c>
       <c r="N2" t="n">
         <v>766789.2697055058</v>
@@ -26365,19 +26365,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>787455.5478918899</v>
+        <v>787455.5478918853</v>
       </c>
       <c r="C3" t="n">
-        <v>4906.247008497833</v>
+        <v>4906.247008502154</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>775688.3472765841</v>
+        <v>775688.3472765849</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2.054705732759963e-10</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26386,19 +26386,19 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>2.669090491409229e-11</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>172360.9924002808</v>
+        <v>172360.9924002807</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>2.531755648039412e-11</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>128077.5968157138</v>
+        <v>128077.5968157139</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,7 +26417,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>190891.9800909048</v>
+        <v>190891.9800909057</v>
       </c>
       <c r="C4" t="n">
         <v>189891.8124216188</v>
@@ -26426,40 +26426,40 @@
         <v>189891.8124216188</v>
       </c>
       <c r="E4" t="n">
-        <v>6897.424496707359</v>
+        <v>6897.424496707238</v>
       </c>
       <c r="F4" t="n">
-        <v>6897.424496707445</v>
+        <v>6897.424496707247</v>
       </c>
       <c r="G4" t="n">
-        <v>6897.424496707425</v>
+        <v>6897.42449670734</v>
       </c>
       <c r="H4" t="n">
-        <v>6897.424496707402</v>
+        <v>6897.424496707342</v>
       </c>
       <c r="I4" t="n">
-        <v>6897.424496707443</v>
+        <v>6897.424496707354</v>
       </c>
       <c r="J4" t="n">
-        <v>6897.424496707402</v>
+        <v>6897.424496707372</v>
       </c>
       <c r="K4" t="n">
-        <v>6897.424496707402</v>
+        <v>6897.42449670733</v>
       </c>
       <c r="L4" t="n">
-        <v>6897.424496707443</v>
+        <v>6897.424496707361</v>
       </c>
       <c r="M4" t="n">
-        <v>6897.424496707319</v>
+        <v>6897.42449670736</v>
       </c>
       <c r="N4" t="n">
-        <v>6897.424496707388</v>
+        <v>6897.42449670736</v>
       </c>
       <c r="O4" t="n">
-        <v>6897.424496707421</v>
+        <v>6897.42449670736</v>
       </c>
       <c r="P4" t="n">
-        <v>6897.42449670736</v>
+        <v>6897.424496707361</v>
       </c>
     </row>
     <row r="5">
@@ -26469,7 +26469,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>86500.62127051741</v>
+        <v>86500.62127051729</v>
       </c>
       <c r="C5" t="n">
         <v>86618.07783747558</v>
@@ -26481,7 +26481,7 @@
         <v>101122.5298239071</v>
       </c>
       <c r="F5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="G5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-284858.4678822426</v>
+        <v>-284858.4678822386</v>
       </c>
       <c r="C6" t="n">
-        <v>498573.5441034765</v>
+        <v>498573.5441034723</v>
       </c>
       <c r="D6" t="n">
-        <v>503479.7911119745</v>
+        <v>503479.7911119744</v>
       </c>
       <c r="E6" t="n">
-        <v>-117266.4111460498</v>
+        <v>-116953.769817129</v>
       </c>
       <c r="F6" t="n">
-        <v>658421.9361305344</v>
+        <v>658734.5774594555</v>
       </c>
       <c r="G6" t="n">
-        <v>658421.9361305346</v>
+        <v>658734.5774594557</v>
       </c>
       <c r="H6" t="n">
-        <v>658421.9361305344</v>
+        <v>658734.5774594559</v>
       </c>
       <c r="I6" t="n">
-        <v>658421.9361305345</v>
+        <v>658734.5774594557</v>
       </c>
       <c r="J6" t="n">
-        <v>486060.9437302537</v>
+        <v>486373.585059175</v>
       </c>
       <c r="K6" t="n">
-        <v>658421.9361305345</v>
+        <v>658734.5774594555</v>
       </c>
       <c r="L6" t="n">
-        <v>658421.9361305344</v>
+        <v>658734.5774594557</v>
       </c>
       <c r="M6" t="n">
-        <v>530344.3393148211</v>
+        <v>530656.9806437419</v>
       </c>
       <c r="N6" t="n">
-        <v>658421.9361305344</v>
+        <v>658734.5774594557</v>
       </c>
       <c r="O6" t="n">
-        <v>658421.9361305343</v>
+        <v>658734.5774594556</v>
       </c>
       <c r="P6" t="n">
-        <v>658421.9361305345</v>
+        <v>658734.5774594558</v>
       </c>
     </row>
   </sheetData>
@@ -26694,28 +26694,28 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>3.250528837155401e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>3.250528837155401e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.250528837155401e-14</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>3.250528837155401e-14</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>6.586891951416936e-14</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>3.336363114261536e-14</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="K2" t="n">
-        <v>3.336363114261536e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>6.501057674310801e-14</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26737,7 +26737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>588.0881844225522</v>
+        <v>588.0881844225474</v>
       </c>
       <c r="C3" t="n">
         <v>593.4761003380651</v>
@@ -26749,7 +26749,7 @@
         <v>1367.975500341674</v>
       </c>
       <c r="F3" t="n">
-        <v>1367.975500341673</v>
+        <v>1367.975500341674</v>
       </c>
       <c r="G3" t="n">
         <v>1367.975500341674</v>
@@ -26798,19 +26798,19 @@
         <v>658.7614942451606</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="J4" t="n">
         <v>1172.708288099648</v>
@@ -26822,7 +26822,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
         <v>1172.708288099648</v>
@@ -26916,10 +26916,10 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>3.250528837155401e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -26928,7 +26928,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>3.336363114261536e-14</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26937,7 +26937,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>3.164694560049265e-14</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26959,19 +26959,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>588.0881844225522</v>
+        <v>588.0881844225474</v>
       </c>
       <c r="C3" t="n">
-        <v>5.387915915512851</v>
+        <v>5.387915915517596</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>774.4994000036085</v>
+        <v>774.4994000036091</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>513.9467938544873</v>
+        <v>513.9467938544882</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>658.7614942451606</v>
+        <v>658.7614942451602</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>513.946793854488</v>
+        <v>513.9467938544882</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27153,10 +27153,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>3.250528837155401e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -27165,7 +27165,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>3.336363114261536e-14</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>513.9467938544873</v>
+        <v>513.9467938544882</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27396,10 +27396,10 @@
         <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>315.2627091761995</v>
+        <v>315.2627091761997</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>119.3310866359325</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27429,10 +27429,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>9.989234430770438</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>212.7466796050973</v>
+        <v>103.4048273999377</v>
       </c>
       <c r="U2" t="n">
         <v>251.156519019379</v>
@@ -27463,7 +27463,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>1.504804251687972</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -27511,7 +27511,7 @@
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>1.504804251686039</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -27536,10 +27536,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>63.32983757788729</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -27554,13 +27554,13 @@
         <v>166.9304924685165</v>
       </c>
       <c r="H4" t="n">
-        <v>152.7984799768616</v>
+        <v>152.7984799768617</v>
       </c>
       <c r="I4" t="n">
-        <v>123.5587419097205</v>
+        <v>123.5587419097208</v>
       </c>
       <c r="J4" t="n">
-        <v>18.38275699775166</v>
+        <v>18.38275699775227</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27584,10 +27584,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>129.6100444893999</v>
+        <v>129.6100444894003</v>
       </c>
       <c r="S4" t="n">
-        <v>205.5352037822504</v>
+        <v>205.5352037822506</v>
       </c>
       <c r="T4" t="n">
         <v>223.4144181712553</v>
@@ -27599,7 +27599,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>243.1618177598164</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -27615,10 +27615,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>103.8605272829844</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -27630,10 +27630,10 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>263.5637839600938</v>
+        <v>315.0408840752156</v>
       </c>
       <c r="I5" t="n">
         <v>118.4960408938903</v>
@@ -27672,10 +27672,10 @@
         <v>212.651863114966</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.1547862223006</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -27684,7 +27684,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27773,13 +27773,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -27830,13 +27830,13 @@
         <v>223.3729047207587</v>
       </c>
       <c r="U7" t="n">
-        <v>44.131660489708</v>
+        <v>40.96281264067008</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27867,13 +27867,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>70.20167351532683</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>315.0408840752156</v>
       </c>
       <c r="I8" t="n">
-        <v>103.7385984844327</v>
+        <v>118.4960408938903</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -28326,25 +28326,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="G14" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -28377,22 +28377,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>-1.028473857802275e-12</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>-6.436047097567693e-14</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -28581,7 +28581,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>1.4210854715202e-12</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -28851,7 +28851,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>9.237055564881302e-13</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -29052,7 +29052,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>1.777136828500379e-12</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -29103,7 +29103,7 @@
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>6.586891951416936e-14</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -29289,7 +29289,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>9.00399754755199e-13</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -29325,7 +29325,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>9.237055564881302e-13</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -29562,7 +29562,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>9.335110462416198e-13</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -29799,10 +29799,10 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>6.501057674310801e-14</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>1.753978826802748e-12</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
@@ -30468,16 +30468,16 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>-6.554386663045383e-14</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>-6.554386663045383e-14</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>1.477928890381008e-12</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.364173605718801</v>
+        <v>2.364173605718782</v>
       </c>
       <c r="H2" t="n">
-        <v>24.21209293956768</v>
+        <v>24.21209293956748</v>
       </c>
       <c r="I2" t="n">
-        <v>91.14480293447417</v>
+        <v>91.14480293447343</v>
       </c>
       <c r="J2" t="n">
-        <v>200.6562795683763</v>
+        <v>200.6562795683747</v>
       </c>
       <c r="K2" t="n">
-        <v>300.7317482984532</v>
+        <v>300.7317482984507</v>
       </c>
       <c r="L2" t="n">
-        <v>373.08432628447</v>
+        <v>373.084326284467</v>
       </c>
       <c r="M2" t="n">
-        <v>415.1281986451717</v>
+        <v>415.1281986451684</v>
       </c>
       <c r="N2" t="n">
-        <v>421.8454069024203</v>
+        <v>421.8454069024169</v>
       </c>
       <c r="O2" t="n">
-        <v>398.336655610554</v>
+        <v>398.3366556105507</v>
       </c>
       <c r="P2" t="n">
-        <v>339.971119719371</v>
+        <v>339.9711197193682</v>
       </c>
       <c r="Q2" t="n">
-        <v>255.3041524645664</v>
+        <v>255.3041524645643</v>
       </c>
       <c r="R2" t="n">
-        <v>148.5085202602338</v>
+        <v>148.5085202602326</v>
       </c>
       <c r="S2" t="n">
-        <v>53.87360604031723</v>
+        <v>53.87360604031679</v>
       </c>
       <c r="T2" t="n">
-        <v>10.34916995903406</v>
+        <v>10.34916995903397</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1891338884575041</v>
+        <v>0.1891338884575025</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.264944396682471</v>
+        <v>1.264944396682461</v>
       </c>
       <c r="H3" t="n">
-        <v>12.21669983111755</v>
+        <v>12.21669983111745</v>
       </c>
       <c r="I3" t="n">
-        <v>43.55181365770788</v>
+        <v>43.55181365770753</v>
       </c>
       <c r="J3" t="n">
-        <v>119.5095054777943</v>
+        <v>119.5095054777934</v>
       </c>
       <c r="K3" t="n">
-        <v>204.2607800555199</v>
+        <v>204.2607800555182</v>
       </c>
       <c r="L3" t="n">
-        <v>274.6538261305514</v>
+        <v>274.6538261305492</v>
       </c>
       <c r="M3" t="n">
-        <v>320.5080605102909</v>
+        <v>320.5080605102883</v>
       </c>
       <c r="N3" t="n">
-        <v>328.9909551704993</v>
+        <v>328.9909551704966</v>
       </c>
       <c r="O3" t="n">
-        <v>300.9624503808508</v>
+        <v>300.9624503808484</v>
       </c>
       <c r="P3" t="n">
-        <v>241.5488997489536</v>
+        <v>241.5488997489516</v>
       </c>
       <c r="Q3" t="n">
-        <v>161.4690426361695</v>
+        <v>161.4690426361681</v>
       </c>
       <c r="R3" t="n">
-        <v>78.53751262910993</v>
+        <v>78.53751262910929</v>
       </c>
       <c r="S3" t="n">
-        <v>23.4957873682029</v>
+        <v>23.49578736820271</v>
       </c>
       <c r="T3" t="n">
-        <v>5.098613598908729</v>
+        <v>5.098613598908688</v>
       </c>
       <c r="U3" t="n">
-        <v>0.08322002609753101</v>
+        <v>0.08322002609753033</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.060486889942307</v>
+        <v>1.060486889942299</v>
       </c>
       <c r="H4" t="n">
-        <v>9.428692530577974</v>
+        <v>9.428692530577898</v>
       </c>
       <c r="I4" t="n">
-        <v>31.89173301753776</v>
+        <v>31.8917330175375</v>
       </c>
       <c r="J4" t="n">
-        <v>74.97642311892112</v>
+        <v>74.97642311892051</v>
       </c>
       <c r="K4" t="n">
-        <v>123.2092950314789</v>
+        <v>123.2092950314779</v>
       </c>
       <c r="L4" t="n">
-        <v>157.6654781646954</v>
+        <v>157.6654781646941</v>
       </c>
       <c r="M4" t="n">
-        <v>166.2361403934109</v>
+        <v>166.2361403934096</v>
       </c>
       <c r="N4" t="n">
-        <v>162.2834165308988</v>
+        <v>162.2834165308975</v>
       </c>
       <c r="O4" t="n">
-        <v>149.8950014983909</v>
+        <v>149.8950014983897</v>
       </c>
       <c r="P4" t="n">
-        <v>128.2610689435677</v>
+        <v>128.2610689435667</v>
       </c>
       <c r="Q4" t="n">
-        <v>88.80131584780538</v>
+        <v>88.80131584780466</v>
       </c>
       <c r="R4" t="n">
-        <v>47.68334688776955</v>
+        <v>47.68334688776915</v>
       </c>
       <c r="S4" t="n">
-        <v>18.48139425472184</v>
+        <v>18.48139425472169</v>
       </c>
       <c r="T4" t="n">
-        <v>4.53117125702622</v>
+        <v>4.531171257026184</v>
       </c>
       <c r="U4" t="n">
-        <v>0.05784473945139864</v>
+        <v>0.05784473945139817</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H11" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162559</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862119</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
-        <v>131.3417120833333</v>
+        <v>405.6377363145765</v>
       </c>
       <c r="O12" t="n">
-        <v>369.1789913100002</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214697</v>
+        <v>561.87657862147</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742437</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348436</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135338</v>
+        <v>56.32071997135343</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663285</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817573</v>
+        <v>699.5441750817579</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162558</v>
+        <v>867.8464071162565</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175671</v>
+        <v>965.646344017568</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159422</v>
+        <v>981.2715114159431</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460025</v>
+        <v>926.5868626460033</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236505</v>
+        <v>790.8204499236512</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.873223366922</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043724</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651529</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078744</v>
+        <v>0.4399519197078748</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659448</v>
+        <v>2.942437868659451</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521099</v>
+        <v>28.41775520521102</v>
       </c>
       <c r="I15" t="n">
-        <v>101.3076196007749</v>
+        <v>101.307619600775</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420756</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422584</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>638.883274947307</v>
+        <v>638.8832749473075</v>
       </c>
       <c r="M15" t="n">
-        <v>377.6350660745962</v>
+        <v>745.5466476862125</v>
       </c>
       <c r="N15" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071789</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437241</v>
+        <v>699.0496615458075</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214697</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.5996128485289</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>182.689256441856</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742441</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869272</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588155</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392047</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106787</v>
+        <v>377.493960610679</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417313</v>
+        <v>298.3532140417316</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
-        <v>110.9181446670478</v>
+        <v>110.9181446670479</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T16" t="n">
-        <v>10.54013910099322</v>
+        <v>10.54013910099323</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H17" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162559</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,31 +32305,31 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N18" t="n">
-        <v>463.9598929192562</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437242</v>
+        <v>398.7616643558009</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32341,13 +32341,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742437</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T18" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P19" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162559</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,34 +32542,34 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>398.7616643558023</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>390.1398273256871</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
@@ -32578,13 +32578,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,46 +32624,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P22" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I23" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J23" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162559</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U23" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32779,31 +32779,31 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071783</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O24" t="n">
-        <v>398.7616643558023</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -32815,13 +32815,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,46 +32861,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P25" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,49 +32937,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J26" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162559</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U26" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33016,31 +33016,31 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>463.9598929192562</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437242</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33052,13 +33052,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,46 +33098,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P28" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,49 +33174,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J29" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162559</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U29" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33253,49 +33253,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862119</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071783</v>
+        <v>366.8427442359099</v>
       </c>
       <c r="O30" t="n">
-        <v>398.7616643558023</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,46 +33335,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P31" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,49 +33411,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J32" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162559</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U32" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33490,31 +33490,31 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
-        <v>398.7616643558023</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33526,13 +33526,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,46 +33572,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P34" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,49 +33648,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067258</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162559</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U35" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33727,31 +33727,31 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
-        <v>398.7616643558023</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -33763,13 +33763,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,46 +33809,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P37" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162559</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U38" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33964,31 +33964,31 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071783</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O39" t="n">
-        <v>398.7616643558023</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -34000,13 +34000,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,46 +34046,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P40" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162559</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U41" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34201,31 +34201,31 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473071</v>
+        <v>337.5641188593843</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
-        <v>400.5469039565771</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -34237,13 +34237,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,46 +34283,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P43" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162559</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043738</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U44" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,31 +34438,31 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>173.8200325543355</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
-        <v>398.7616643558023</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -34474,13 +34474,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,46 +34520,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P46" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>19.61037504168999</v>
+        <v>19.61037504168837</v>
       </c>
       <c r="K2" t="n">
-        <v>80.64189725347262</v>
+        <v>404.7873098246349</v>
       </c>
       <c r="L2" t="n">
-        <v>554.9791258649332</v>
+        <v>554.9791258649302</v>
       </c>
       <c r="M2" t="n">
-        <v>634.2954989107315</v>
+        <v>634.2954989107282</v>
       </c>
       <c r="N2" t="n">
-        <v>629.7792677178136</v>
+        <v>629.7792677178102</v>
       </c>
       <c r="O2" t="n">
-        <v>547.3865996076761</v>
+        <v>223.2411870365293</v>
       </c>
       <c r="P2" t="n">
-        <v>108.7381239641015</v>
+        <v>108.7381239640987</v>
       </c>
       <c r="Q2" t="n">
-        <v>32.99846259011687</v>
+        <v>32.9984625901148</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>118.7629141515355</v>
       </c>
       <c r="K3" t="n">
-        <v>330.8845780937395</v>
+        <v>66.41934108115922</v>
       </c>
       <c r="L3" t="n">
-        <v>506.9397916541364</v>
+        <v>506.9397916541342</v>
       </c>
       <c r="M3" t="n">
-        <v>644.0790903382725</v>
+        <v>576.2555237206443</v>
       </c>
       <c r="N3" t="n">
-        <v>310.5578676674224</v>
+        <v>658.7614942451606</v>
       </c>
       <c r="O3" t="n">
-        <v>158.3662059364064</v>
+        <v>552.2285252131335</v>
       </c>
       <c r="P3" t="n">
-        <v>426.0372609745605</v>
+        <v>107.5744923346214</v>
       </c>
       <c r="Q3" t="n">
-        <v>231.564556285997</v>
+        <v>21.48726855014661</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34859,25 +34859,25 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>100.9398032055961</v>
+        <v>100.9398032055951</v>
       </c>
       <c r="L4" t="n">
-        <v>185.2555034250115</v>
+        <v>185.2555034250103</v>
       </c>
       <c r="M4" t="n">
-        <v>205.8200173552515</v>
+        <v>205.8200173552501</v>
       </c>
       <c r="N4" t="n">
-        <v>206.4155889101274</v>
+        <v>206.4155889101261</v>
       </c>
       <c r="O4" t="n">
-        <v>174.4801294124306</v>
+        <v>174.4801294124293</v>
       </c>
       <c r="P4" t="n">
-        <v>125.5396282084612</v>
+        <v>125.5396282084602</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.639272596110999</v>
+        <v>2.639272596110274</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35017,7 +35017,7 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>68.29072693268387</v>
+        <v>332.7559639452625</v>
       </c>
       <c r="L6" t="n">
         <v>509.4561008748672</v>
@@ -35026,13 +35026,13 @@
         <v>647.0155045122269</v>
       </c>
       <c r="N6" t="n">
-        <v>658.7614942451606</v>
+        <v>200.663375406732</v>
       </c>
       <c r="O6" t="n">
         <v>554.9858674269929</v>
       </c>
       <c r="P6" t="n">
-        <v>146.9530496838794</v>
+        <v>340.5859315097288</v>
       </c>
       <c r="Q6" t="n">
         <v>22.96660727472423</v>
@@ -35172,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.5453525391276</v>
+        <v>21.44873736705384</v>
       </c>
       <c r="K8" t="n">
-        <v>407.5425384040863</v>
+        <v>83.39712583292157</v>
       </c>
       <c r="L8" t="n">
-        <v>391.4668765743286</v>
+        <v>558.3972305517163</v>
       </c>
       <c r="M8" t="n">
-        <v>188.5852654802098</v>
+        <v>638.0987989730422</v>
       </c>
       <c r="N8" t="n">
-        <v>196.2971847393761</v>
+        <v>633.6441091513602</v>
       </c>
       <c r="O8" t="n">
-        <v>552.6880856233105</v>
+        <v>526.2530003157322</v>
       </c>
       <c r="P8" t="n">
-        <v>433.6515619588832</v>
+        <v>111.8528537874005</v>
       </c>
       <c r="Q8" t="n">
-        <v>247.6524856312129</v>
+        <v>35.33749497130819</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35260,10 +35260,10 @@
         <v>509.4561008748672</v>
       </c>
       <c r="M9" t="n">
-        <v>229.4160469348621</v>
+        <v>181.3104407622271</v>
       </c>
       <c r="N9" t="n">
-        <v>200.663375406732</v>
+        <v>248.7689815793672</v>
       </c>
       <c r="O9" t="n">
         <v>554.9858674269929</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396419</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367769</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243158</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924726</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,31 +35485,31 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774901</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674329</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641936</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>274.2960242312432</v>
       </c>
       <c r="O12" t="n">
-        <v>226.5827468655557</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071394</v>
+        <v>427.9021712071398</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317199</v>
+        <v>1.539690236317369</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396418</v>
+        <v>285.7087110396407</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367789</v>
+        <v>479.4543240367773</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462685</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902944</v>
+        <v>735.3001107902953</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193513</v>
+        <v>751.8584478193523</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243157</v>
+        <v>696.4886512243165</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683809</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924725</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902403</v>
+        <v>129.8660843902406</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,34 +35722,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774872</v>
+        <v>1.785239600774958</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678994</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674328</v>
+        <v>500.3288951674334</v>
       </c>
       <c r="M15" t="n">
-        <v>235.5010321525779</v>
+        <v>603.4126137641942</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>633.9373369238456</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992796</v>
+        <v>556.453417101363</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071394</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625074</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789205</v>
+        <v>37.00975247789219</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.0464832629533</v>
+        <v>81.04648326295347</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096348</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191313</v>
+        <v>394.3420143191316</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010449</v>
+        <v>426.2724270010453</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060456</v>
       </c>
       <c r="P16" t="n">
-        <v>295.6317733066248</v>
+        <v>295.6317733066251</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J17" t="n">
-        <v>285.7087110396419</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367769</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243158</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924726</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,25 +35959,25 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774901</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674329</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641936</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N18" t="n">
-        <v>332.6181808359229</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992797</v>
+        <v>256.1654199113564</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q19" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367769</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902946</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243158</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,28 +36196,28 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774901</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674329</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>256.1654199113578</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q22" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367769</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902943</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243158</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,25 +36433,25 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774901</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J24" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674329</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.937336923845</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O24" t="n">
-        <v>256.1654199113578</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36515,28 +36515,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q25" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367769</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902946</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243158</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.866084390239</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,25 +36670,25 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774901</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J27" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674329</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>332.6181808359229</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992797</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36752,28 +36752,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q28" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
-        <v>285.7087110396419</v>
+        <v>285.7087110396405</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367769</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902946</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243158</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,34 +36907,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774901</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674329</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641936</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>633.937336923845</v>
+        <v>235.5010321525766</v>
       </c>
       <c r="O30" t="n">
-        <v>256.1654199113578</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36989,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q31" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37065,31 +37065,31 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367769</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902946</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243158</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
         <v>129.8660843902399</v>
@@ -37144,25 +37144,25 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774901</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J33" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674329</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
-        <v>256.1654199113578</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37226,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q34" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236319862</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367769</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902946</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243158</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,25 +37381,25 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774901</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674329</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
-        <v>256.1654199113578</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37463,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q37" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367769</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902946</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243158</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902418</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,25 +37618,25 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774901</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674329</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.937336923845</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O39" t="n">
-        <v>256.1654199113578</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37700,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q40" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J41" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367769</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902946</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243158</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,25 +37855,25 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674329</v>
+        <v>199.0097390795101</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
-        <v>257.9506595121327</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -37937,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M43" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P43" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q43" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J44" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367769</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902946</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243158</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902418</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,25 +38092,25 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774901</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J45" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>337.2977496678995</v>
+        <v>35.97859357997653</v>
       </c>
       <c r="L45" t="n">
-        <v>500.3288951674329</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
-        <v>256.1654199113578</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -38174,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M46" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N46" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P46" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q46" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
